--- a/data/trans_bre/CONS_TEN-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_TEN-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,15</t>
+          <t>-11,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,81</t>
+          <t>-7,77</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-13,3</t>
+          <t>-4,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-45,49%</t>
+          <t>-58,66%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-42,96%</t>
+          <t>-38,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-63,64%</t>
+          <t>-45,53%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,75; -2,16</t>
+          <t>-15,87; -8,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,25; -5,05</t>
+          <t>-13,36; -2,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,42; -9,98</t>
+          <t>-8,24; -1,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-62,77; -18,8</t>
+          <t>-69,77; -47,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-57,58; -27,78</t>
+          <t>-55,2; -15,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-71,61; -53,08</t>
+          <t>-63,84; -14,33</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-9,0</t>
+          <t>-9,25</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-8,73</t>
+          <t>-4,85</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-8,1</t>
+          <t>-6,8</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-53,13%</t>
+          <t>-43,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-41,29%</t>
+          <t>-25,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-39,49%</t>
+          <t>-51,76%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,74; -4,48</t>
+          <t>-13,77; -3,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,25; -4,51</t>
+          <t>-10,16; 0,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,54; -3,91</t>
+          <t>-11,08; -2,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-68,1; -29,56</t>
+          <t>-56,68; -21,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-56,14; -24,94</t>
+          <t>-45,25; 1,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,61; -21,72</t>
+          <t>-70,41; -24,99</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>13,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,28</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>-16,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>121,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-20,0%</t>
+          <t>34,89%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 8,88</t>
+          <t>-9,45; 1,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 10,95</t>
+          <t>-1,08; 29,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,71; -0,3</t>
+          <t>-2,11; 11,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-31,45; 57,94</t>
+          <t>-34,01; 6,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 71,36</t>
+          <t>-6,68; 655,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,88; -0,76</t>
+          <t>-14,35; 103,14</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,97</t>
+          <t>-3,79</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,73</t>
+          <t>22,43</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,02</t>
+          <t>-5,28</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-32,42%</t>
+          <t>-17,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>114,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-18,01%</t>
+          <t>-34,27%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,28; -1,46</t>
+          <t>-7,56; 0,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 27,15</t>
+          <t>-6,08; 57,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,35; -0,64</t>
+          <t>-9,45; -1,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-49,98; -9,65</t>
+          <t>-31,44; 1,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,44; 128,45</t>
+          <t>-30,73; 323,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,26; -2,65</t>
+          <t>-53,06; -11,74</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,23</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>35,82%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>8,57%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 7,96</t>
+          <t>-4,1; 6,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,58; 11,19</t>
+          <t>-7,91; 11,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 5,22</t>
+          <t>-4,74; 6,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 74,24</t>
+          <t>-16,76; 33,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,32; 64,32</t>
+          <t>-32,3; 73,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 26,03</t>
+          <t>-32,21; 70,42</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,05</t>
+          <t>22,41</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>26,13</t>
+          <t>24,42</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,11</t>
+          <t>7,55</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>69,97%</t>
+          <t>426,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1568,43%</t>
+          <t>1215,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>665,03%</t>
+          <t>56,32%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 31,47</t>
+          <t>17,06; 26,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23,18; 29,13</t>
+          <t>20,72; 28,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,84; 25,45</t>
+          <t>-20,51; 34,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>185,02; 933,22</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>378,79; 4572,08</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>597,4; 5091,06</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>325,46; 1304,3</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,77</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>10,47</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-29,59%</t>
+          <t>-15,22%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>64,18%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-15,1%</t>
+          <t>-28,04%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,82; -2,44</t>
+          <t>-5,19; -1,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,96; 12,77</t>
+          <t>0,85; 32,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,01; -1,49</t>
+          <t>-5,41; -1,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-40,01; -16,17</t>
+          <t>-23,07; -7,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,88; 68,58</t>
+          <t>4,47; 221,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,52; -7,69</t>
+          <t>-39,19; -13,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_TEN-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_TEN-Clase-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-11,78</t>
+          <t>-9,86</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-58,66%</t>
+          <t>-52,27%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,87; -8,51</t>
+          <t>-13,4; -6,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,36; -2,95</t>
+          <t>-12,82; -2,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-69,77; -47,19</t>
+          <t>-64,36; -38,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-55,2; -15,76</t>
+          <t>-55,41; -13,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-9,25</t>
+          <t>-9,47</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-43,09%</t>
+          <t>-44,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,77; -3,83</t>
+          <t>-14,4; -4,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 0,25</t>
+          <t>-9,9; 0,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-56,68; -21,47</t>
+          <t>-59,02; -25,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,25; 1,96</t>
+          <t>-45,72; 3,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,33</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-16,79%</t>
+          <t>-2,38%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 1,4</t>
+          <t>-5,65; 5,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 29,53</t>
+          <t>-0,59; 28,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-34,01; 6,63</t>
+          <t>-23,2; 25,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 655,87</t>
+          <t>-3,39; 756,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,79</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-17,21%</t>
+          <t>-12,03%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 0,12</t>
+          <t>-5,99; 1,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 57,8</t>
+          <t>-6,47; 58,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,44; 1,39</t>
+          <t>-27,7; 5,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,73; 323,01</t>
+          <t>-31,53; 333,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 6,3</t>
+          <t>-2,06; 7,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 11,44</t>
+          <t>-8,9; 10,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,76; 33,91</t>
+          <t>-9,27; 45,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-32,3; 73,94</t>
+          <t>-34,06; 64,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,41</t>
+          <t>20,73</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>426,78%</t>
+          <t>715,8%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,06; 26,76</t>
+          <t>17,21; 24,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,72; 28,59</t>
+          <t>19,98; 28,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>185,02; 933,22</t>
+          <t>339,9; 1709,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>378,79; 4572,08</t>
+          <t>262,44; 4206,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-15,22%</t>
+          <t>-11,91%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,19; -1,47</t>
+          <t>-3,97; -0,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,85; 32,56</t>
+          <t>1,72; 31,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-23,07; -7,18</t>
+          <t>-19,58; -3,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,47; 221,8</t>
+          <t>8,85; 229,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_TEN-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_TEN-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-6,43</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-4,93</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-9,86</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-7,77</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-4,93</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-32,06%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-45,53%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>-52,27%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-38,06%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-45,53%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-11,32; -1,02</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-8,24; -1,28</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-13,4; -6,51</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-12,82; -2,42</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-8,24; -1,28</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-50,73; -5,85</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-63,84; -14,33</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-64,36; -38,85</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-55,41; -13,79</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-63,84; -14,33</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-4,46</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-6,8</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-9,47</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-4,85</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-6,8</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-23,38%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-51,76%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-44,75%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-25,14%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-51,76%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-9,44; 0,5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-11,08; -2,8</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-14,4; -4,71</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-9,9; 0,46</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-11,08; -2,8</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-44,1; 3,61</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-70,41; -24,99</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-59,02; -25,45</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-45,72; 3,03</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-70,41; -24,99</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4,35</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-0,56</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>13,75</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,35</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>12,79%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>34,89%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>-2,38%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>121,6%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>34,89%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-4,8; 11,5</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 11,55</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-5,65; 5,61</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 28,1</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,11; 11,55</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-19,67; 61,28</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-14,35; 103,14</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-23,2; 25,2</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-3,39; 756,75</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-14,35; 103,14</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-4,32</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-5,28</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-2,42</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>22,43</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-5,28</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-23,19%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-34,27%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>-12,03%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>114,08%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-34,27%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-8,3; -0,68</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-9,45; -1,64</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-5,99; 1,03</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-6,47; 58,99</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-9,45; -1,64</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-39,54; -2,39</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-53,06; -11,74</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-27,7; 5,72</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-31,53; 333,47</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-53,06; -11,74</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>7,03</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>2,71</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,41</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,05</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>39,22%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8,57%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>13,72%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>18,21%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>8,57%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,94; 12,56</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-4,74; 6,44</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-2,06; 7,61</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-8,9; 10,3</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,74; 6,44</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>3,94; 87,4</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-32,21; 70,42</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>-9,27; 45,57</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-34,06; 64,68</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-32,21; 70,42</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>23,97</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7,55</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>20,73</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>24,42</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>7,55</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>1214,03%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>56,32%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>715,8%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>1215,7%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>56,32%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>19,76; 27,57</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-20,51; 34,32</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>17,21; 24,73</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>19,98; 28,21</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-20,51; 34,32</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>304,3; 4168,52</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>339,9; 1709,6</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>262,44; 4206,98</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,78</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-3,62</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-2,29</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>10,47</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-3,62</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>9,91%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-28,04%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>-11,91%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>64,18%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-28,04%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-0,49; 3,99</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-5,41; -1,56</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>-3,97; -0,6</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>1,72; 31,56</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-5,41; -1,56</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>-2,49; 24,35</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-39,19; -13,09</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>-19,58; -3,21</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>8,85; 229,79</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-39,19; -13,09</t>
         </is>
       </c>
     </row>
